--- a/Tiempos de ejecucion.xlsx
+++ b/Tiempos de ejecucion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/befc71fbe88da65b/Tarea-1-ADAED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCF07E99-26F3-4C7A-9CDC-0764CE5874E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{BCF07E99-26F3-4C7A-9CDC-0764CE5874E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75047142-08DE-4783-AFF0-5B179B943119}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{229075B3-255C-41AE-97AD-713BD31BA0D4}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{229075B3-255C-41AE-97AD-713BD31BA0D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -130,13 +130,13 @@
     <t>0.000000</t>
   </si>
   <si>
-    <t>0.015000</t>
-  </si>
-  <si>
-    <t>0.031000</t>
-  </si>
-  <si>
-    <t>0.156000</t>
+    <t>0.007000</t>
+  </si>
+  <si>
+    <t>0.053000</t>
+  </si>
+  <si>
+    <t>0.200000</t>
   </si>
 </sst>
 </file>
@@ -221,6 +221,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC4B38D-49E6-4DC5-8AFE-7975939DBCA1}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>2376000</v>
+        <v>3597000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,20 +635,24 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>46499000</v>
+        <v>64421000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="2">
+        <v>949687000</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="2">
+        <v>13608198000</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">

--- a/Tiempos de ejecucion.xlsx
+++ b/Tiempos de ejecucion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/befc71fbe88da65b/Tarea-1-ADAED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ed\Desktop\Tarea-1-ADAED-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{BCF07E99-26F3-4C7A-9CDC-0764CE5874E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75047142-08DE-4783-AFF0-5B179B943119}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C76BFC-50F3-48ED-9B11-832B69A4504A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{229075B3-255C-41AE-97AD-713BD31BA0D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{229075B3-255C-41AE-97AD-713BD31BA0D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -35,50 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Datos de entrada</t>
   </si>
   <si>
-    <t>Tiempo De Ejecucion</t>
-  </si>
-  <si>
-    <t>knapPI_6_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_8_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_10_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_12_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_14_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_16_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_18_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_20_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_24_1000.txt</t>
-  </si>
-  <si>
-    <t>knapPI_28_1000.txt</t>
-  </si>
-  <si>
-    <t>knapPI_32_1000.txt</t>
-  </si>
-  <si>
-    <t>knapPI_36_1000.txt</t>
-  </si>
-  <si>
     <t>knapPI_40_1000.txt</t>
   </si>
   <si>
@@ -137,13 +98,16 @@
   </si>
   <si>
     <t>0.200000</t>
+  </si>
+  <si>
+    <t>Tiempo De Ejecucion (s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +118,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -195,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,6 +178,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,8 +196,1145 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo De Ejecucion </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36019444444444448"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo De Ejecucion (s)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.007000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.053000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.200000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3671041119860017E-2"/>
+                  <c:y val="-0.15782407407407406"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$10:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$10:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.421000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5332-4084-8DE5-8F1CA56F0884}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="292988160"/>
+        <c:axId val="1648960464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="292988160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Datos de entrada</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1648960464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1648960464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Tiempo de ejecución</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292988160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C458AC-249A-8F75-BF53-62DA469A5A57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,16 +1648,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC4B38D-49E6-4DC5-8AFE-7975939DBCA1}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -555,203 +1665,206 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="1">
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2">
+        <v>64.421000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3597000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>64421000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B12" s="2">
-        <v>949687000</v>
+        <v>950</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
+      <c r="A13" s="1">
+        <v>36</v>
       </c>
       <c r="B13" s="2">
-        <v>13608198000</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tiempos de ejecucion.xlsx
+++ b/Tiempos de ejecucion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/befc71fbe88da65b/Tarea-1-ADAED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ed\Desktop\Tarea-1-ADAED-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{BCF07E99-26F3-4C7A-9CDC-0764CE5874E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75047142-08DE-4783-AFF0-5B179B943119}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6FD7E0-DFAD-4509-9FF2-70C9B04A7967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{229075B3-255C-41AE-97AD-713BD31BA0D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{229075B3-255C-41AE-97AD-713BD31BA0D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -35,48 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Datos de entrada</t>
-  </si>
-  <si>
-    <t>Tiempo De Ejecucion</t>
-  </si>
-  <si>
-    <t>knapPI_6_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_8_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_10_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_12_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_14_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_16_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_18_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_20_500.txt</t>
-  </si>
-  <si>
-    <t>knapPI_24_1000.txt</t>
-  </si>
-  <si>
-    <t>knapPI_28_1000.txt</t>
-  </si>
-  <si>
-    <t>knapPI_32_1000.txt</t>
-  </si>
-  <si>
-    <t>knapPI_36_1000.txt</t>
   </si>
   <si>
     <t>knapPI_40_1000.txt</t>
@@ -138,12 +99,15 @@
   <si>
     <t>0.200000</t>
   </si>
+  <si>
+    <t>Tiempo De Ejecucion (s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +118,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -195,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,6 +176,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -223,8 +199,2126 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo de ejecucion predicción de 40 a 100</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0250000000000007E-2"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo De Ejecucion (s)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.007000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.053000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.200000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.160564304461942E-2"/>
+                  <c:y val="-0.55802857976086317"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Hoja1!$A$10:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>knapPI_40_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>knapPI_44_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>knapPI_48_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>knapPI_52_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>knapPI_56_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>knapPI_60_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>knapPI_64_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>knapPI_68_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>knapPI_72_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>knapPI_76_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>knapPI_80_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>knapPI_84_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>knapPI_88_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>knapPI_92_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>knapPI_96_1000.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>knapPI_100_1000.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$10:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.421000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2786621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39887844</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>570956546</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8172699651</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>116984418351</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1674520626081</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23969169284920</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>343095849200399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4911090590552870</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>7.0297588399355604E+32</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>1.00624308259988E+34</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>1.44034121843275E+35</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>2.0617113910051799E+36</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>2.9511436633228402E+36</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>4.22428132257852E+37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-863E-431C-AD22-0BF57445F653}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="440131216"/>
+        <c:axId val="560539808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="440131216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560539808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="560539808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="440131216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempos de ejecución experimentales (1-36)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10463888888888891"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo De Ejecucion (s)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.007000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.053000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.200000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.7235345581802275E-4"/>
+                  <c:y val="8.8425925925925929E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$10:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$10:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.421000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-589C-4B37-81C4-A0F18AB4F032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="607598944"/>
+        <c:axId val="607573872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="607598944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607573872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="607573872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607598944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D279150-49EC-E40B-E5F0-50D7C2053F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A29E8D-D5A1-9D76-2752-A7F3E3B51432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,16 +2632,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC4B38D-49E6-4DC5-8AFE-7975939DBCA1}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -555,203 +2649,238 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="1">
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="1">
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="1">
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="1">
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="A6" s="1">
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" s="1">
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" s="1">
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" s="1">
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
+      <c r="A10" s="1">
+        <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>3597000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+      <c r="A11" s="1">
+        <v>28</v>
       </c>
       <c r="B11" s="2">
-        <v>64421000</v>
+        <v>64.421000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
+      <c r="A12" s="1">
+        <v>32</v>
       </c>
       <c r="B12" s="2">
-        <v>949687000</v>
+        <v>950</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
+      <c r="A13" s="1">
+        <v>36</v>
       </c>
       <c r="B13" s="2">
-        <v>13608198000</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>194766</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2786621</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>39887844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>570956546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8172699651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>116984418351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1674520626081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>23969169284920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2">
+        <v>343095849200399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4911090590552870</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7.0297588399355604E+32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1.00624308259988E+34</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1.44034121843275E+35</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2.0617113910051799E+36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2.9511436633228402E+36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="5">
+        <v>4.22428132257852E+37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>